--- a/data/trans_orig/IP11A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP11A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48C6072D-4855-46BE-8458-33D8B0E75055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E793913C-7489-41D0-B738-EC1C6D5103A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{208A18F6-2516-427F-AC3D-BCACFF233265}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8458BA1D-2EAC-4C1E-A55E-E82E742A3722}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="614">
   <si>
     <t>Menores según el lugar donde se produjo el accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -101,25 +101,22 @@
     <t>76,33%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>69,3%</t>
+    <t>81,91%</t>
   </si>
   <si>
     <t>50,18%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>En un lugar de recreo o deporte</t>
@@ -128,13 +125,13 @@
     <t>15,73%</t>
   </si>
   <si>
-    <t>64,66%</t>
+    <t>64,86%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>47,82%</t>
+    <t>38,87%</t>
   </si>
   <si>
     <t>En la escuela, colegio, guardería</t>
@@ -143,22 +140,19 @@
     <t>23,67%</t>
   </si>
   <si>
-    <t>74,79%</t>
-  </si>
-  <si>
     <t>32,56%</t>
   </si>
   <si>
-    <t>81,85%</t>
+    <t>85,17%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>En su casa</t>
@@ -167,13 +161,13 @@
     <t>19,59%</t>
   </si>
   <si>
-    <t>72,01%</t>
+    <t>70,99%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>45,45%</t>
+    <t>54,03%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,1678 +188,1699 @@
     <t>4,95%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
   </si>
   <si>
     <t>19,76%</t>
   </si>
   <si>
-    <t>7,35%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el lugar donde se produjo el accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>Menores según el lugar donde se produjo el accidente en 2016 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>Menores según el lugar donde se produjo el accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>38,1%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el lugar donde se produjo el accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>Menores según el lugar donde se produjo el accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>Menores según el lugar donde se produjo el accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBAD9CA-7C18-4FA2-9C92-A0D816B85BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB06EB30-3BF9-4E6E-92EB-CAD91695D171}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2557,10 +2572,10 @@
         <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2569,13 +2584,13 @@
         <v>1322</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -2584,19 +2599,19 @@
         <v>3489</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2620,13 +2635,13 @@
         <v>647</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2635,19 +2650,19 @@
         <v>647</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -2656,13 +2671,13 @@
         <v>672</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -2671,13 +2686,13 @@
         <v>1339</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -2686,19 +2701,19 @@
         <v>2012</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2722,13 +2737,13 @@
         <v>806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2737,13 +2752,13 @@
         <v>806</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2773,13 @@
         <v>2839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -2773,13 +2788,13 @@
         <v>4114</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -2788,18 +2803,18 @@
         <v>6954</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2817,37 +2832,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,37 +2883,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,14 +2928,14 @@
         <v>1826</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
@@ -2934,7 +2949,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2943,13 +2958,13 @@
         <v>1826</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2979,13 @@
         <v>6325</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
@@ -2979,13 +2994,13 @@
         <v>4160</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -2994,19 +3009,19 @@
         <v>10485</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>16</v>
@@ -3015,13 +3030,13 @@
         <v>10126</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3030,13 +3045,13 @@
         <v>3283</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -3045,19 +3060,19 @@
         <v>13409</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <v>11</v>
@@ -3066,13 +3081,13 @@
         <v>7062</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3081,13 +3096,13 @@
         <v>4104</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>17</v>
@@ -3096,19 +3111,19 @@
         <v>11166</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -3117,13 +3132,13 @@
         <v>11584</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -3132,13 +3147,13 @@
         <v>9499</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -3147,7 +3162,7 @@
         <v>21083</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>88</v>
@@ -3168,13 +3183,13 @@
         <v>36922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -3183,13 +3198,13 @@
         <v>21046</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -3198,13 +3213,13 @@
         <v>57968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,7 +3431,7 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -3467,7 +3482,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -3518,7 +3533,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
         <v>4</v>
@@ -3578,13 +3593,13 @@
         <v>6764</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -3593,13 +3608,13 @@
         <v>10144</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
         <v>25</v>
@@ -3608,13 +3623,13 @@
         <v>16908</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3841,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>19</v>
@@ -3877,7 +3892,7 @@
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7">
         <v>15</v>
@@ -3928,7 +3943,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7">
         <v>21</v>
@@ -3988,13 +4003,13 @@
         <v>46525</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H35" s="7">
         <v>53</v>
@@ -4003,13 +4018,13 @@
         <v>35304</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M35" s="7">
         <v>123</v>
@@ -4018,13 +4033,13 @@
         <v>81829</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,7 +4063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFA9135-97F9-4257-9B23-E357ED3E0FFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2875AF52-F126-475F-B638-B3D49DD233E1}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4367,7 +4382,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
@@ -4418,7 +4433,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -4469,7 +4484,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -4529,13 +4544,13 @@
         <v>12584</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -4544,13 +4559,13 @@
         <v>4053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -4559,18 +4574,18 @@
         <v>16637</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4618,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>92</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,7 +4654,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4669,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4690,7 +4705,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4720,7 +4735,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4750,13 @@
         <v>4651</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
@@ -4750,7 +4765,7 @@
         <v>4067</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>225</v>
@@ -4768,16 +4783,16 @@
         <v>227</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>31</v>
@@ -4786,13 +4801,13 @@
         <v>21261</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4801,13 +4816,13 @@
         <v>15667</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4816,19 +4831,19 @@
         <v>36928</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <v>13</v>
@@ -4837,13 +4852,13 @@
         <v>8879</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4852,13 +4867,13 @@
         <v>7237</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -4867,19 +4882,19 @@
         <v>16116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7">
         <v>12</v>
@@ -4888,13 +4903,13 @@
         <v>8407</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -4903,13 +4918,13 @@
         <v>10979</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -4918,13 +4933,13 @@
         <v>19387</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4954,13 @@
         <v>44894</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -4954,13 +4969,13 @@
         <v>37951</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M19" s="7">
         <v>120</v>
@@ -4969,13 +4984,13 @@
         <v>82845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,7 +5013,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5013,7 +5028,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5028,7 +5043,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5064,7 +5079,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5079,7 +5094,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,7 +5115,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5115,7 +5130,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5130,7 +5145,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,7 +5166,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5166,7 +5181,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5181,13 +5196,13 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>10</v>
@@ -5196,13 +5211,13 @@
         <v>6354</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -5211,13 +5226,13 @@
         <v>4236</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -5226,19 +5241,19 @@
         <v>10590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>8</v>
@@ -5247,13 +5262,13 @@
         <v>5555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5262,13 +5277,13 @@
         <v>3753</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5277,19 +5292,19 @@
         <v>9308</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
         <v>5</v>
@@ -5298,13 +5313,13 @@
         <v>3990</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5313,13 +5328,13 @@
         <v>1719</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -5328,13 +5343,13 @@
         <v>5709</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5364,13 @@
         <v>15899</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
         <v>14</v>
@@ -5364,13 +5379,13 @@
         <v>9708</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
         <v>37</v>
@@ -5379,13 +5394,13 @@
         <v>25607</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5417,13 @@
         <v>1696</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -5417,13 +5432,13 @@
         <v>656</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5432,13 +5447,13 @@
         <v>2352</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5468,13 @@
         <v>1893</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5468,13 +5483,13 @@
         <v>710</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5483,13 +5498,13 @@
         <v>2602</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5519,13 @@
         <v>628</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5525,7 +5540,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -5534,13 +5549,13 @@
         <v>628</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5570,13 @@
         <v>6563</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -5570,13 +5585,13 @@
         <v>5409</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -5585,19 +5600,19 @@
         <v>11972</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>46</v>
@@ -5606,13 +5621,13 @@
         <v>31246</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -5621,13 +5636,13 @@
         <v>19903</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M32" s="7">
         <v>74</v>
@@ -5636,19 +5651,19 @@
         <v>51149</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7">
         <v>22</v>
@@ -5657,13 +5672,13 @@
         <v>15085</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H33" s="7">
         <v>16</v>
@@ -5672,13 +5687,13 @@
         <v>11661</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M33" s="7">
         <v>38</v>
@@ -5687,19 +5702,19 @@
         <v>26746</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>151</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7">
         <v>22</v>
@@ -5708,13 +5723,13 @@
         <v>16267</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H34" s="7">
         <v>21</v>
@@ -5723,13 +5738,13 @@
         <v>13373</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M34" s="7">
         <v>43</v>
@@ -5738,13 +5753,13 @@
         <v>29640</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>335</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5774,13 @@
         <v>73377</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H35" s="7">
         <v>75</v>
@@ -5774,13 +5789,13 @@
         <v>51712</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M35" s="7">
         <v>180</v>
@@ -5789,13 +5804,13 @@
         <v>125089</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E56D89C-41AF-4FAF-8718-68CDED8D13C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC8B3D2-5660-480D-93AA-F98046BFC981}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5836,7 +5851,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5943,13 +5958,13 @@
         <v>662</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5973,13 +5988,13 @@
         <v>662</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,7 +6045,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,7 +6096,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6096,13 +6111,13 @@
         <v>562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6111,13 +6126,13 @@
         <v>617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -6126,19 +6141,19 @@
         <v>1180</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -6162,13 +6177,13 @@
         <v>564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6189,7 +6204,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -6204,7 +6219,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -6219,7 +6234,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -6240,7 +6255,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -6285,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6315,13 @@
         <v>2529</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -6315,13 +6330,13 @@
         <v>2457</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -6330,18 +6345,18 @@
         <v>4986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6524,10 +6539,10 @@
         <v>376</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>47</v>
+        <v>377</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M15" s="7">
         <v>18</v>
@@ -6536,19 +6551,19 @@
         <v>13065</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>13</v>
@@ -6557,13 +6572,13 @@
         <v>9119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6572,13 +6587,13 @@
         <v>1920</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -6587,19 +6602,19 @@
         <v>11040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -6608,13 +6623,13 @@
         <v>5064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -6623,13 +6638,13 @@
         <v>6489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -6638,19 +6653,19 @@
         <v>11553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7">
         <v>8</v>
@@ -6659,13 +6674,13 @@
         <v>5295</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>161</v>
+        <v>402</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -6674,13 +6689,13 @@
         <v>2595</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -6689,13 +6704,13 @@
         <v>7890</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6725,13 @@
         <v>31390</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6725,13 +6740,13 @@
         <v>16500</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M19" s="7">
         <v>69</v>
@@ -6740,13 +6755,13 @@
         <v>47890</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6793,13 @@
         <v>559</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6799,7 +6814,7 @@
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6850,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6865,13 +6880,13 @@
         <v>713</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6886,7 +6901,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -6895,13 +6910,13 @@
         <v>713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6931,13 @@
         <v>700</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -6931,13 +6946,13 @@
         <v>605</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -6946,19 +6961,19 @@
         <v>1305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -6967,13 +6982,13 @@
         <v>1981</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -6982,13 +6997,13 @@
         <v>2088</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -6997,19 +7012,19 @@
         <v>4069</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -7018,13 +7033,13 @@
         <v>1430</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7039,7 +7054,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7048,19 +7063,19 @@
         <v>1430</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
         <v>3</v>
@@ -7069,13 +7084,13 @@
         <v>1982</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -7084,13 +7099,13 @@
         <v>1159</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7099,13 +7114,13 @@
         <v>3141</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7120,13 +7135,13 @@
         <v>6805</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -7135,13 +7150,13 @@
         <v>4412</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
         <v>17</v>
@@ -7150,13 +7165,13 @@
         <v>11218</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7188,13 @@
         <v>1211</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7188,13 +7203,13 @@
         <v>1014</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>441</v>
+        <v>223</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7203,13 +7218,13 @@
         <v>2225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,7 +7245,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -7245,7 +7260,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -7260,7 +7275,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,13 +7290,13 @@
         <v>1301</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7290,13 +7305,13 @@
         <v>2751</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>452</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -7305,10 +7320,10 @@
         <v>4052</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>455</v>
+        <v>94</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>456</v>
@@ -7347,7 +7362,7 @@
         <v>461</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>462</v>
+        <v>196</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -7356,10 +7371,10 @@
         <v>15550</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>464</v>
@@ -7368,7 +7383,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>16</v>
@@ -7410,16 +7425,16 @@
         <v>471</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>268</v>
+        <v>472</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7">
         <v>11</v>
@@ -7428,13 +7443,13 @@
         <v>7797</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -7443,13 +7458,13 @@
         <v>7765</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M33" s="7">
         <v>22</v>
@@ -7458,19 +7473,19 @@
         <v>15562</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7">
         <v>11</v>
@@ -7479,13 +7494,13 @@
         <v>7277</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -7494,10 +7509,10 @@
         <v>3754</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>486</v>
+        <v>289</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>487</v>
@@ -7530,13 +7545,13 @@
         <v>40724</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H35" s="7">
         <v>36</v>
@@ -7545,13 +7560,13 @@
         <v>23369</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M35" s="7">
         <v>94</v>
@@ -7560,13 +7575,13 @@
         <v>64093</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,7 +7605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916BC0EA-158F-4888-BC5D-5947820AB679}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FDB252-F12F-4639-B74A-DC4E2ED62BED}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7735,7 +7750,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7750,7 +7765,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,13 +7882,13 @@
         <v>1036</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>497</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -7888,7 +7903,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -7903,13 +7918,13 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -7960,7 +7975,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -8011,7 +8026,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -8071,13 +8086,13 @@
         <v>1036</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -8086,13 +8101,13 @@
         <v>1080</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -8101,18 +8116,18 @@
         <v>2116</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -8160,7 +8175,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,7 +8226,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8232,7 +8247,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>502</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -8241,13 +8256,13 @@
         <v>597</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -8256,13 +8271,13 @@
         <v>1572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>506</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8292,13 @@
         <v>1000</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -8292,13 +8307,13 @@
         <v>2406</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>509</v>
+        <v>374</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -8307,19 +8322,19 @@
         <v>3406</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>11</v>
@@ -8328,13 +8343,13 @@
         <v>8122</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -8343,13 +8358,13 @@
         <v>2046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>48</v>
+        <v>516</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -8358,19 +8373,19 @@
         <v>10169</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <v>3</v>
@@ -8379,13 +8394,13 @@
         <v>2383</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -8394,13 +8409,13 @@
         <v>4818</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -8409,19 +8424,19 @@
         <v>7201</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7">
         <v>2</v>
@@ -8430,13 +8445,13 @@
         <v>1494</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>530</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>417</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -8445,13 +8460,13 @@
         <v>1147</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>532</v>
+        <v>473</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -8460,13 +8475,13 @@
         <v>2641</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>437</v>
+        <v>533</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,13 +8496,13 @@
         <v>13974</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -8496,13 +8511,13 @@
         <v>11014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -8511,13 +8526,13 @@
         <v>24989</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8540,7 +8555,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8555,7 +8570,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -8570,7 +8585,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8591,7 +8606,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -8606,7 +8621,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -8621,7 +8636,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8636,13 +8651,13 @@
         <v>658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -8651,13 +8666,13 @@
         <v>671</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>540</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -8672,7 +8687,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8687,13 +8702,13 @@
         <v>1403</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -8702,13 +8717,13 @@
         <v>642</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -8717,19 +8732,19 @@
         <v>2045</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -8738,13 +8753,13 @@
         <v>1879</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>550</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -8753,13 +8768,13 @@
         <v>1976</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -8768,19 +8783,19 @@
         <v>3855</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -8789,13 +8804,13 @@
         <v>1593</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8804,13 +8819,13 @@
         <v>975</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -8819,19 +8834,19 @@
         <v>2569</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>558</v>
+        <v>189</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -8840,13 +8855,13 @@
         <v>1866</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -8855,13 +8870,13 @@
         <v>843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8870,13 +8885,13 @@
         <v>2709</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8891,13 +8906,13 @@
         <v>7399</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -8906,13 +8921,13 @@
         <v>5107</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M27" s="7">
         <v>16</v>
@@ -8921,13 +8936,13 @@
         <v>12507</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8950,7 +8965,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8959,13 +8974,13 @@
         <v>424</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -8974,13 +8989,13 @@
         <v>424</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>570</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9001,7 +9016,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -9016,7 +9031,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -9046,13 +9061,13 @@
         <v>1633</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>471</v>
+        <v>575</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -9061,13 +9076,13 @@
         <v>1268</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M30" s="7">
         <v>4</v>
@@ -9079,10 +9094,10 @@
         <v>92</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9097,13 +9112,13 @@
         <v>3439</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -9112,13 +9127,13 @@
         <v>3704</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -9127,19 +9142,19 @@
         <v>7143</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>584</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="7">
         <v>14</v>
@@ -9148,13 +9163,13 @@
         <v>10001</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -9163,13 +9178,13 @@
         <v>4022</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -9178,19 +9193,19 @@
         <v>14023</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="7">
         <v>5</v>
@@ -9199,13 +9214,13 @@
         <v>3977</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>230</v>
+        <v>599</v>
       </c>
       <c r="H33" s="7">
         <v>8</v>
@@ -9214,13 +9229,13 @@
         <v>5793</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>318</v>
+        <v>600</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -9229,19 +9244,19 @@
         <v>9770</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="7">
         <v>4</v>
@@ -9250,13 +9265,13 @@
         <v>3360</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>602</v>
+        <v>150</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -9265,13 +9280,13 @@
         <v>1990</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>361</v>
+        <v>609</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>83</v>
+        <v>610</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -9280,13 +9295,13 @@
         <v>5350</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9301,13 +9316,13 @@
         <v>22410</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -9316,13 +9331,13 @@
         <v>17201</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M35" s="7">
         <v>55</v>
@@ -9331,13 +9346,13 @@
         <v>39611</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
